--- a/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>39.56205426043417</v>
+      </c>
+      <c r="C2">
+        <v>25.32058608972766</v>
+      </c>
+      <c r="D2">
+        <v>7.208458123571517</v>
+      </c>
+      <c r="E2">
+        <v>5.008465539408451</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.063076116718476</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>8.493888087251028</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>20.51337652478691</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>36.87550333470249</v>
+      </c>
+      <c r="C3">
+        <v>23.33226860881591</v>
+      </c>
+      <c r="D3">
+        <v>6.647103933962667</v>
+      </c>
+      <c r="E3">
+        <v>4.908488590707096</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.087248750199359</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>8.164802840371259</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>20.12163134884041</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>35.20603882586828</v>
+      </c>
+      <c r="C4">
+        <v>22.07801444627632</v>
+      </c>
+      <c r="D4">
+        <v>6.29199874405621</v>
+      </c>
+      <c r="E4">
+        <v>4.849066321774363</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.102057612955398</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>7.969395712411444</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>19.88929126101387</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>34.52009304114607</v>
+      </c>
+      <c r="C5">
+        <v>21.55762467668662</v>
+      </c>
+      <c r="D5">
+        <v>6.168523789174663</v>
+      </c>
+      <c r="E5">
+        <v>4.825236954764401</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.108103521294614</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>7.891326888171579</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>19.79644194332253</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>34.40584101190484</v>
+      </c>
+      <c r="C6">
+        <v>21.47063247682079</v>
+      </c>
+      <c r="D6">
+        <v>6.147959619026227</v>
+      </c>
+      <c r="E6">
+        <v>4.82130061191801</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.109108625182976</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>7.878455323837749</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>19.78112903289362</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>35.19681126426399</v>
+      </c>
+      <c r="C7">
+        <v>22.07103484060775</v>
+      </c>
+      <c r="D7">
+        <v>6.290337582944725</v>
+      </c>
+      <c r="E7">
+        <v>4.848743517439202</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.102139081469975</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>7.968336649015052</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>19.88803192204659</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>38.6393780303258</v>
+      </c>
+      <c r="C8">
+        <v>24.64136704703207</v>
+      </c>
+      <c r="D8">
+        <v>7.017006932864438</v>
+      </c>
+      <c r="E8">
+        <v>4.973513875321694</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.071430606784196</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>8.378958781557451</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>20.37645054071459</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>45.53042758895081</v>
+      </c>
+      <c r="C9">
+        <v>29.46801399390969</v>
+      </c>
+      <c r="D9">
+        <v>8.371348762946235</v>
+      </c>
+      <c r="E9">
+        <v>5.240089019947506</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.009837410818514</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>9.244731777915725</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>21.41250963095224</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>50.72248071634758</v>
+      </c>
+      <c r="C10">
+        <v>32.98261691059472</v>
+      </c>
+      <c r="D10">
+        <v>9.349401812327281</v>
+      </c>
+      <c r="E10">
+        <v>5.461522354146895</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.961666577023949</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>9.934857620484104</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>22.24682876802778</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>53.12737609860277</v>
+      </c>
+      <c r="C11">
+        <v>34.60881318325404</v>
+      </c>
+      <c r="D11">
+        <v>9.799769847999023</v>
+      </c>
+      <c r="E11">
+        <v>5.572138567325164</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.938410902195355</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>10.28130082817587</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>22.65109462065361</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>54.05025320846707</v>
+      </c>
+      <c r="C12">
+        <v>35.23290878880627</v>
+      </c>
+      <c r="D12">
+        <v>9.972243635577852</v>
+      </c>
+      <c r="E12">
+        <v>5.616013043626769</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.929321748770519</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>10.46005829335843</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>22.80886941141703</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>53.85082866715317</v>
+      </c>
+      <c r="C13">
+        <v>35.09804052447883</v>
+      </c>
+      <c r="D13">
+        <v>9.934989098302312</v>
+      </c>
+      <c r="E13">
+        <v>5.606463779797951</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.931293672842913</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>10.42146086609018</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>22.77465797750896</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>53.20301366764215</v>
+      </c>
+      <c r="C14">
+        <v>34.65996027384401</v>
+      </c>
+      <c r="D14">
+        <v>9.813912456247756</v>
+      </c>
+      <c r="E14">
+        <v>5.57570419782663</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.937669445695136</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>10.29596503174522</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>22.66397268544885</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>52.80801816857314</v>
+      </c>
+      <c r="C15">
+        <v>34.39286295964369</v>
+      </c>
+      <c r="D15">
+        <v>9.740042660557828</v>
+      </c>
+      <c r="E15">
+        <v>5.557142748331588</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.941534683517527</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>10.22264869585649</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>22.5968269357243</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>50.56664041632988</v>
+      </c>
+      <c r="C16">
+        <v>32.87722609240876</v>
+      </c>
+      <c r="D16">
+        <v>9.320166931182937</v>
+      </c>
+      <c r="E16">
+        <v>5.454535309992706</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.963152487431321</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>9.913576868026816</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>22.22099338686555</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>49.20621121460272</v>
+      </c>
+      <c r="C17">
+        <v>31.95704225658223</v>
+      </c>
+      <c r="D17">
+        <v>9.064668295358793</v>
+      </c>
+      <c r="E17">
+        <v>5.394454390097313</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1.976016853425542</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>9.729206184377333</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>21.99743923174245</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>48.4273088458708</v>
+      </c>
+      <c r="C18">
+        <v>31.43001859174929</v>
+      </c>
+      <c r="D18">
+        <v>8.918136919877634</v>
+      </c>
+      <c r="E18">
+        <v>5.360783836489595</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.983296636561937</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>9.624821505022172</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>21.8710968524833</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>48.16405462983069</v>
+      </c>
+      <c r="C19">
+        <v>31.25185596652622</v>
+      </c>
+      <c r="D19">
+        <v>8.86856866386481</v>
+      </c>
+      <c r="E19">
+        <v>5.349522160807915</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1.985743128643773</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>9.589742434298289</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>21.82867661294227</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>49.35062463418775</v>
+      </c>
+      <c r="C20">
+        <v>32.05473918358999</v>
+      </c>
+      <c r="D20">
+        <v>9.091815678782925</v>
+      </c>
+      <c r="E20">
+        <v>5.400755003386425</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1.974660324400292</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>9.748655619572492</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>22.02099831780315</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>53.39290086653852</v>
+      </c>
+      <c r="C21">
+        <v>34.78836624696584</v>
+      </c>
+      <c r="D21">
+        <v>9.849411759452918</v>
+      </c>
+      <c r="E21">
+        <v>5.584679361537355</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.935805300860565</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>10.33276864098903</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>22.69634498317571</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>56.11081345667544</v>
+      </c>
+      <c r="C22">
+        <v>36.62683982156274</v>
+      </c>
+      <c r="D22">
+        <v>10.35671970425296</v>
+      </c>
+      <c r="E22">
+        <v>5.716939494842786</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.908690133110692</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>10.85791122097736</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>23.16598055595499</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>54.6505129776025</v>
+      </c>
+      <c r="C23">
+        <v>35.63889000734057</v>
+      </c>
+      <c r="D23">
+        <v>10.08432928680748</v>
+      </c>
+      <c r="E23">
+        <v>5.64498614824896</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.923360050253048</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>10.57613542523521</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>22.91222689632739</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>49.28532569218912</v>
+      </c>
+      <c r="C24">
+        <v>32.01056446707604</v>
+      </c>
+      <c r="D24">
+        <v>9.07954131041603</v>
+      </c>
+      <c r="E24">
+        <v>5.397903822691762</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1.975273966631259</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>9.739857568758518</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>22.0103405370794</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>43.62739648659934</v>
+      </c>
+      <c r="C25">
+        <v>28.17669838229652</v>
+      </c>
+      <c r="D25">
+        <v>8.010344012975622</v>
+      </c>
+      <c r="E25">
+        <v>5.16458874963337</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.026827276418225</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>9.002663146874948</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>21.12167182740768</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>39.56205426043417</v>
+        <v>26.0275340155623</v>
       </c>
       <c r="C2">
-        <v>25.32058608972766</v>
+        <v>22.90035020904721</v>
       </c>
       <c r="D2">
-        <v>7.208458123571517</v>
+        <v>7.373276628618465</v>
       </c>
       <c r="E2">
-        <v>5.008465539408451</v>
+        <v>30.53016446541078</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.063076116718476</v>
+        <v>46.24078534186401</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.33382700092305</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.5126348527879</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.493888087251028</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.51337652478691</v>
+        <v>10.17068183980445</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36.87550333470249</v>
+        <v>24.19264773259331</v>
       </c>
       <c r="C3">
-        <v>23.33226860881591</v>
+        <v>21.26448422315151</v>
       </c>
       <c r="D3">
-        <v>6.647103933962667</v>
+        <v>6.841059475164543</v>
       </c>
       <c r="E3">
-        <v>4.908488590707096</v>
+        <v>28.21346327477815</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.087248750199359</v>
+        <v>43.1430497704728</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.82908640811373</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.95213571913449</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.164802840371259</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.12163134884041</v>
+        <v>10.48131091548145</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35.20603882586828</v>
+        <v>23.00920881119559</v>
       </c>
       <c r="C4">
-        <v>22.07801444627632</v>
+        <v>20.21223987416041</v>
       </c>
       <c r="D4">
-        <v>6.29199874405621</v>
+        <v>6.498591130729539</v>
       </c>
       <c r="E4">
-        <v>4.849066321774363</v>
+        <v>26.73582984766499</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.102057612955398</v>
+        <v>41.20783570605006</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.52766656354948</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.62875250866475</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.969395712411444</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.88929126101387</v>
+        <v>10.67312269767993</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.52009304114607</v>
+        <v>22.51238696237179</v>
       </c>
       <c r="C5">
-        <v>21.55762467668662</v>
+        <v>19.77112685946757</v>
       </c>
       <c r="D5">
-        <v>6.168523789174663</v>
+        <v>6.35500129613774</v>
       </c>
       <c r="E5">
-        <v>4.825236954764401</v>
+        <v>26.11914891335784</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.108103521294614</v>
+        <v>40.41105516302149</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.40698479480715</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.50205494545113</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.891326888171579</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.79644194332253</v>
+        <v>10.7516697564539</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34.40584101190484</v>
+        <v>22.42900301421494</v>
       </c>
       <c r="C6">
-        <v>21.47063247682079</v>
+        <v>19.69712857429866</v>
       </c>
       <c r="D6">
-        <v>6.147959619026227</v>
+        <v>6.330912416947886</v>
       </c>
       <c r="E6">
-        <v>4.82130061191801</v>
+        <v>26.0158537271771</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.109108625182976</v>
+        <v>40.2782672523993</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.38707621987531</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.4813199171876</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.878455323837749</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.78112903289362</v>
+        <v>10.76473851432386</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.19681126426399</v>
+        <v>23.00256780224342</v>
       </c>
       <c r="C7">
-        <v>22.07103484060775</v>
+        <v>20.20634109852304</v>
       </c>
       <c r="D7">
-        <v>6.290337582944725</v>
+        <v>6.496671060669994</v>
       </c>
       <c r="E7">
-        <v>4.848743517439202</v>
+        <v>26.7275727411933</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.102139081469975</v>
+        <v>41.19712268713804</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.52603027365866</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.62702341904845</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.968336649015052</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.88803192204659</v>
+        <v>10.67418032645691</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>38.6393780303258</v>
+        <v>25.40648312707112</v>
       </c>
       <c r="C8">
-        <v>24.64136704703207</v>
+        <v>22.34604375677648</v>
       </c>
       <c r="D8">
-        <v>7.017006932864438</v>
+        <v>7.192968874166603</v>
       </c>
       <c r="E8">
-        <v>4.973513875321694</v>
+        <v>29.74239562042063</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.071430606784196</v>
+        <v>45.17960728459872</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.15803138306885</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.31498042822645</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.378958781557451</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.37645054071459</v>
+        <v>10.27763132602401</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45.53042758895081</v>
+        <v>29.68361947590099</v>
       </c>
       <c r="C9">
-        <v>29.46801399390969</v>
+        <v>26.17737855225849</v>
       </c>
       <c r="D9">
-        <v>8.371348762946235</v>
+        <v>8.438299746755083</v>
       </c>
       <c r="E9">
-        <v>5.240089019947506</v>
+        <v>35.25092152331295</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.009837410818514</v>
+        <v>52.84685807342696</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>13.46559761538446</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.83567098238561</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.244731777915725</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.41250963095224</v>
+        <v>9.502966373210867</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50.72248071634758</v>
+        <v>32.58163112563467</v>
       </c>
       <c r="C10">
-        <v>32.98261691059472</v>
+        <v>28.79370110239513</v>
       </c>
       <c r="D10">
-        <v>9.349401812327281</v>
+        <v>9.286858968921399</v>
       </c>
       <c r="E10">
-        <v>5.461522354146895</v>
+        <v>39.10840936429722</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.961666577023949</v>
+        <v>58.38640275271467</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>14.53735539109082</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>19.06933983599373</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.934857620484104</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.24682876802778</v>
+        <v>8.926469489623811</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>53.12737609860277</v>
+        <v>33.85279473186342</v>
       </c>
       <c r="C11">
-        <v>34.60881318325404</v>
+        <v>29.94722827936073</v>
       </c>
       <c r="D11">
-        <v>9.799769847999023</v>
+        <v>9.660274039923571</v>
       </c>
       <c r="E11">
-        <v>5.572138567325164</v>
+        <v>40.83793730399312</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.938410902195355</v>
+        <v>60.88336984254957</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15.14947671556909</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19.81387487494295</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.28130082817587</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.65109462065361</v>
+        <v>8.660105535053665</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>54.05025320846707</v>
+        <v>34.32795654877787</v>
       </c>
       <c r="C12">
-        <v>35.23290878880627</v>
+        <v>30.37941848391156</v>
       </c>
       <c r="D12">
-        <v>9.972243635577852</v>
+        <v>9.800043084963411</v>
       </c>
       <c r="E12">
-        <v>5.616013043626769</v>
+        <v>41.49089450375706</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.929321748770519</v>
+        <v>61.82710134280034</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15.3810440878698</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>20.12743349351905</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.46005829335843</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.80886941141703</v>
+        <v>8.558393538017492</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>53.85082866715317</v>
+        <v>34.22588733516952</v>
       </c>
       <c r="C13">
-        <v>35.09804052447883</v>
+        <v>30.28653273312535</v>
       </c>
       <c r="D13">
-        <v>9.934989098302312</v>
+        <v>9.770010910850447</v>
       </c>
       <c r="E13">
-        <v>5.606463779797951</v>
+        <v>41.35032619992182</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.931293672842913</v>
+        <v>61.62390456235231</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>15.33117537533019</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>20.05986020123868</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.42146086609018</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.77465797750896</v>
+        <v>8.580341220677139</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>53.20301366764215</v>
+        <v>33.89200714522192</v>
       </c>
       <c r="C14">
-        <v>34.65996027384401</v>
+        <v>29.98287340394732</v>
       </c>
       <c r="D14">
-        <v>9.813912456247756</v>
+        <v>9.671804576657433</v>
       </c>
       <c r="E14">
-        <v>5.57570419782663</v>
+        <v>40.89168535785544</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.937669445695136</v>
+        <v>60.96103761786053</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15.16853010896743</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19.83965314865093</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.29596503174522</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.66397268544885</v>
+        <v>8.651756206180949</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>52.80801816857314</v>
+        <v>33.6867074275026</v>
       </c>
       <c r="C15">
-        <v>34.39286295964369</v>
+        <v>29.79629210561571</v>
       </c>
       <c r="D15">
-        <v>9.740042660557828</v>
+        <v>9.611443160824283</v>
       </c>
       <c r="E15">
-        <v>5.557142748331588</v>
+        <v>40.61055225136745</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.941534683517527</v>
+        <v>60.55482707715394</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>15.06888754023362</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>19.70488470765868</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.22264869585649</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.5968269357243</v>
+        <v>8.695381443904353</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>50.56664041632988</v>
+        <v>32.49765606944488</v>
       </c>
       <c r="C16">
-        <v>32.87722609240876</v>
+        <v>28.71763036664286</v>
       </c>
       <c r="D16">
-        <v>9.320166931182937</v>
+        <v>9.262216339697027</v>
       </c>
       <c r="E16">
-        <v>5.454535309992706</v>
+        <v>38.9950060196624</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.963152487431321</v>
+        <v>58.22287593543206</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>14.49729809850676</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>19.03138687989806</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.913576868026816</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.22099338686555</v>
+        <v>8.94377354841715</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>49.20621121460272</v>
+        <v>31.75651642912055</v>
       </c>
       <c r="C17">
-        <v>31.95704225658223</v>
+        <v>28.04694248135491</v>
       </c>
       <c r="D17">
-        <v>9.064668295358793</v>
+        <v>9.0448670218946</v>
       </c>
       <c r="E17">
-        <v>5.394454390097313</v>
+        <v>37.99852369589466</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.976016853425542</v>
+        <v>56.78734993726257</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>14.17613411057136</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>18.70205551264564</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.729206184377333</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.99743923174245</v>
+        <v>9.094933862415303</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>48.4273088458708</v>
+        <v>31.325753930076</v>
       </c>
       <c r="C18">
-        <v>31.43001859174929</v>
+        <v>27.65768609909415</v>
       </c>
       <c r="D18">
-        <v>8.918136919877634</v>
+        <v>8.918655511457992</v>
       </c>
       <c r="E18">
-        <v>5.360783836489595</v>
+        <v>37.42287880258016</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.983296636561937</v>
+        <v>55.95939768922371</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>14.02459019850435</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>18.51532807400709</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.624821505022172</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.8710968524833</v>
+        <v>9.181507838346068</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>48.16405462983069</v>
+        <v>31.17911984056025</v>
       </c>
       <c r="C19">
-        <v>31.25185596652622</v>
+        <v>27.52527259911818</v>
       </c>
       <c r="D19">
-        <v>8.86856866386481</v>
+        <v>8.875711792538837</v>
       </c>
       <c r="E19">
-        <v>5.349522160807915</v>
+        <v>37.22750188371864</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.985743128643773</v>
+        <v>55.67863721993335</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>13.97346283212971</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>18.45255747196073</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.589742434298289</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.82867661294227</v>
+        <v>9.210763862498355</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>49.35062463418775</v>
+        <v>31.83587163495676</v>
       </c>
       <c r="C20">
-        <v>32.05473918358999</v>
+        <v>28.1186957114218</v>
       </c>
       <c r="D20">
-        <v>9.091815678782925</v>
+        <v>9.068127021078118</v>
       </c>
       <c r="E20">
-        <v>5.400755003386425</v>
+        <v>38.1048482219225</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.974660324400292</v>
+        <v>56.9403900824247</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>14.2042697771858</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>18.73683181154789</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.748655619572492</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.02099831780315</v>
+        <v>9.078882520229325</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>53.39290086653852</v>
+        <v>33.99023897757687</v>
       </c>
       <c r="C21">
-        <v>34.78836624696584</v>
+        <v>30.07218530296067</v>
       </c>
       <c r="D21">
-        <v>9.849411759452918</v>
+        <v>9.700692979806135</v>
       </c>
       <c r="E21">
-        <v>5.584679361537355</v>
+        <v>41.02643798457387</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.935805300860565</v>
+        <v>61.1557731052673</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15.21630586374025</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.90430827634257</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.33276864098903</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.69634498317571</v>
+        <v>8.630805113232141</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>56.11081345667544</v>
+        <v>35.3624528593466</v>
       </c>
       <c r="C22">
-        <v>36.62683982156274</v>
+        <v>31.32233586702248</v>
       </c>
       <c r="D22">
-        <v>10.35671970425296</v>
+        <v>10.10468546048752</v>
       </c>
       <c r="E22">
-        <v>5.716939494842786</v>
+        <v>42.92538746515608</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.908690133110692</v>
+        <v>63.90118267804829</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>15.89034989700579</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.81900789187107</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.85791122097736</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.16598055595499</v>
+        <v>8.332875814258774</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>54.6505129776025</v>
+        <v>34.63313078751094</v>
       </c>
       <c r="C23">
-        <v>35.63889000734057</v>
+        <v>30.65729159401894</v>
       </c>
       <c r="D23">
-        <v>10.08432928680748</v>
+        <v>9.889863061796651</v>
       </c>
       <c r="E23">
-        <v>5.64498614824896</v>
+        <v>41.91219527335966</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.923360050253048</v>
+        <v>62.4361815768081</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>15.53055538120605</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>20.33017895957322</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.57613542523521</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.91222689632739</v>
+        <v>8.492448756714904</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>49.28532569218912</v>
+        <v>31.80000973939266</v>
       </c>
       <c r="C24">
-        <v>32.01056446707604</v>
+        <v>28.08626755125564</v>
       </c>
       <c r="D24">
-        <v>9.07954131041603</v>
+        <v>9.057615095852906</v>
       </c>
       <c r="E24">
-        <v>5.397903822691762</v>
+        <v>38.05678760170293</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.975273966631259</v>
+        <v>56.87120899193984</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>14.19154644438219</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>18.72110134828349</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.739857568758518</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.0103405370794</v>
+        <v>9.08614034165568</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>43.62739648659934</v>
+        <v>28.57122198221393</v>
       </c>
       <c r="C25">
-        <v>28.17669838229652</v>
+        <v>25.17768602139802</v>
       </c>
       <c r="D25">
-        <v>8.010344012975622</v>
+        <v>8.113607791271594</v>
       </c>
       <c r="E25">
-        <v>5.16458874963337</v>
+        <v>33.7986554542892</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.026827276418225</v>
+        <v>50.7785780312157</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>13.10430454332817</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.40484438022519</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.002663146874948</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.12167182740768</v>
+        <v>9.713079837240047</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.0275340155623</v>
+        <v>15.5481441735457</v>
       </c>
       <c r="C2">
-        <v>22.90035020904721</v>
+        <v>12.3976867857438</v>
       </c>
       <c r="D2">
-        <v>7.373276628618465</v>
+        <v>5.96792099260609</v>
       </c>
       <c r="E2">
-        <v>30.53016446541078</v>
+        <v>16.53272111060208</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.24078534186401</v>
+        <v>34.71726866766956</v>
       </c>
       <c r="H2">
-        <v>12.33382700092305</v>
+        <v>14.60081989217757</v>
       </c>
       <c r="I2">
-        <v>16.5126348527879</v>
+        <v>19.95002442975634</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.17068183980445</v>
+        <v>16.21006386266351</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.19264773259331</v>
+        <v>14.80732950842882</v>
       </c>
       <c r="C3">
-        <v>21.26448422315151</v>
+        <v>11.59619543570442</v>
       </c>
       <c r="D3">
-        <v>6.841059475164543</v>
+        <v>5.847133426156652</v>
       </c>
       <c r="E3">
-        <v>28.21346327477815</v>
+        <v>15.58751913712275</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.1430497704728</v>
+        <v>33.88729454128996</v>
       </c>
       <c r="H3">
-        <v>11.82908640811373</v>
+        <v>14.56532119140542</v>
       </c>
       <c r="I3">
-        <v>15.95213571913449</v>
+        <v>19.94029781321222</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.48131091548145</v>
+        <v>16.28718261907238</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.00920881119559</v>
+        <v>14.33664346255196</v>
       </c>
       <c r="C4">
-        <v>20.21223987416041</v>
+        <v>11.09675394752501</v>
       </c>
       <c r="D4">
-        <v>6.498591130729539</v>
+        <v>5.773691212322553</v>
       </c>
       <c r="E4">
-        <v>26.73582984766499</v>
+        <v>14.98279392996644</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.20783570605006</v>
+        <v>33.38433052538839</v>
       </c>
       <c r="H4">
-        <v>11.52766656354948</v>
+        <v>14.54820250088277</v>
       </c>
       <c r="I4">
-        <v>15.62875250866475</v>
+        <v>19.94143858370069</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.67312269767993</v>
+        <v>16.33644568882588</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.51238696237179</v>
+        <v>14.14113299146339</v>
       </c>
       <c r="C5">
-        <v>19.77112685946757</v>
+        <v>10.88702080934155</v>
       </c>
       <c r="D5">
-        <v>6.35500129613774</v>
+        <v>5.743989483833317</v>
       </c>
       <c r="E5">
-        <v>26.11914891335784</v>
+        <v>14.73050559302048</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>40.41105516302149</v>
+        <v>33.1813899863129</v>
       </c>
       <c r="H5">
-        <v>11.40698479480715</v>
+        <v>14.54240228988833</v>
       </c>
       <c r="I5">
-        <v>15.50205494545113</v>
+        <v>19.94368203263307</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10.7516697564539</v>
+        <v>16.35700381192694</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.42900301421494</v>
+        <v>14.10845392606804</v>
       </c>
       <c r="C6">
-        <v>19.69712857429866</v>
+        <v>10.85182376616609</v>
       </c>
       <c r="D6">
-        <v>6.330912416947886</v>
+        <v>5.739072539681684</v>
       </c>
       <c r="E6">
-        <v>26.0158537271771</v>
+        <v>14.688268433947</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40.2782672523993</v>
+        <v>33.14782424475341</v>
       </c>
       <c r="H6">
-        <v>11.38707621987531</v>
+        <v>14.54151014352986</v>
       </c>
       <c r="I6">
-        <v>15.4813199171876</v>
+        <v>19.94416165169323</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>10.76473851432386</v>
+        <v>16.36044671245668</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.00256780224342</v>
+        <v>14.33402133382075</v>
       </c>
       <c r="C7">
-        <v>20.20634109852304</v>
+        <v>11.09395037415437</v>
       </c>
       <c r="D7">
-        <v>6.496671060669994</v>
+        <v>5.773289667308506</v>
       </c>
       <c r="E7">
-        <v>26.7275727411933</v>
+        <v>14.97941480395135</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.19712268713804</v>
+        <v>33.38158494880805</v>
       </c>
       <c r="H7">
-        <v>11.52603027365866</v>
+        <v>14.54811951829107</v>
       </c>
       <c r="I7">
-        <v>15.62702341904845</v>
+        <v>19.94146165297894</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.67418032645691</v>
+        <v>16.33672098421568</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.40648312707112</v>
+        <v>15.29614892130588</v>
       </c>
       <c r="C8">
-        <v>22.34604375677648</v>
+        <v>12.1172569150298</v>
       </c>
       <c r="D8">
-        <v>7.192968874166603</v>
+        <v>5.92615054732452</v>
       </c>
       <c r="E8">
-        <v>29.74239562042063</v>
+        <v>16.21201878222172</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.17960728459872</v>
+        <v>34.42992415949547</v>
       </c>
       <c r="H8">
-        <v>12.15803138306885</v>
+        <v>14.58760925026978</v>
       </c>
       <c r="I8">
-        <v>16.31498042822645</v>
+        <v>19.94518885964003</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.27763132602401</v>
+        <v>16.23625898540869</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.68361947590099</v>
+        <v>17.04713291467398</v>
       </c>
       <c r="C9">
-        <v>26.17737855225849</v>
+        <v>14.02004347292009</v>
       </c>
       <c r="D9">
-        <v>8.438299746755083</v>
+        <v>6.22968424711997</v>
       </c>
       <c r="E9">
-        <v>35.25092152331295</v>
+        <v>18.52819870552906</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.84685807342696</v>
+        <v>36.52327189201864</v>
       </c>
       <c r="H9">
-        <v>13.46559761538446</v>
+        <v>14.7021199687355</v>
       </c>
       <c r="I9">
-        <v>17.83567098238561</v>
+        <v>20.00930739698332</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.502966373210867</v>
+        <v>16.05431713006008</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.58163112563467</v>
+        <v>18.2395788168513</v>
       </c>
       <c r="C10">
-        <v>28.79370110239513</v>
+        <v>15.267591537137</v>
       </c>
       <c r="D10">
-        <v>9.286858968921399</v>
+        <v>6.452445787074532</v>
       </c>
       <c r="E10">
-        <v>39.10840936429722</v>
+        <v>20.19168851745649</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>58.38640275271467</v>
+        <v>38.06454537529351</v>
       </c>
       <c r="H10">
-        <v>14.53735539109082</v>
+        <v>14.80870158253534</v>
       </c>
       <c r="I10">
-        <v>19.06933983599373</v>
+        <v>20.0914416857313</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>8.926469489623811</v>
+        <v>15.92967672438214</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.85279473186342</v>
+        <v>18.75985759220933</v>
       </c>
       <c r="C11">
-        <v>29.94722827936073</v>
+        <v>15.80281928184702</v>
       </c>
       <c r="D11">
-        <v>9.660274039923571</v>
+        <v>6.553223165469839</v>
       </c>
       <c r="E11">
-        <v>40.83793730399312</v>
+        <v>20.90669558127356</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>60.88336984254957</v>
+        <v>38.76255524771378</v>
       </c>
       <c r="H11">
-        <v>15.14947671556909</v>
+        <v>14.86200178662173</v>
       </c>
       <c r="I11">
-        <v>19.81387487494295</v>
+        <v>20.1364586957641</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8.660105535053665</v>
+        <v>15.87490315991306</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.32795654877787</v>
+        <v>18.95356902615478</v>
       </c>
       <c r="C12">
-        <v>30.37941848391156</v>
+        <v>16.00088056273671</v>
       </c>
       <c r="D12">
-        <v>9.800043084963411</v>
+        <v>6.591264846552171</v>
       </c>
       <c r="E12">
-        <v>41.49089450375706</v>
+        <v>21.17149113522515</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>61.82710134280034</v>
+        <v>39.02612607960653</v>
       </c>
       <c r="H12">
-        <v>15.3810440878698</v>
+        <v>14.88287021517906</v>
       </c>
       <c r="I12">
-        <v>20.12743349351905</v>
+        <v>20.15460676451123</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.558393538017492</v>
+        <v>15.85443629091401</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.22588733516952</v>
+        <v>18.91199854902262</v>
       </c>
       <c r="C13">
-        <v>30.28653273312535</v>
+        <v>15.95842950195859</v>
       </c>
       <c r="D13">
-        <v>9.770010910850447</v>
+        <v>6.583077868100959</v>
       </c>
       <c r="E13">
-        <v>41.35032619992182</v>
+        <v>21.11472724421126</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>61.62390456235231</v>
+        <v>38.96939934170216</v>
       </c>
       <c r="H13">
-        <v>15.33117537533019</v>
+        <v>14.87834550579973</v>
       </c>
       <c r="I13">
-        <v>20.05986020123868</v>
+        <v>20.15064929320517</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.580341220677139</v>
+        <v>15.85883201645597</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.89200714522192</v>
+        <v>18.7758612296765</v>
       </c>
       <c r="C14">
-        <v>29.98287340394732</v>
+        <v>15.81920630722452</v>
       </c>
       <c r="D14">
-        <v>9.671804576657433</v>
+        <v>6.556355515839001</v>
       </c>
       <c r="E14">
-        <v>40.89168535785544</v>
+        <v>20.9285997454808</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>60.96103761786053</v>
+        <v>38.78425607163746</v>
       </c>
       <c r="H14">
-        <v>15.16853010896743</v>
+        <v>14.86370496926238</v>
       </c>
       <c r="I14">
-        <v>19.83965314865093</v>
+        <v>20.13792968434311</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8.651756206180949</v>
+        <v>15.87321384605146</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.6867074275026</v>
+        <v>18.69203937039664</v>
       </c>
       <c r="C15">
-        <v>29.79629210561571</v>
+        <v>15.73332744619367</v>
       </c>
       <c r="D15">
-        <v>9.611443160824283</v>
+        <v>6.539970449661986</v>
       </c>
       <c r="E15">
-        <v>40.61055225136745</v>
+        <v>20.81381594944768</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>60.55482707715394</v>
+        <v>38.67074415288572</v>
       </c>
       <c r="H15">
-        <v>15.06888754023362</v>
+        <v>14.85482614756234</v>
       </c>
       <c r="I15">
-        <v>19.70488470765868</v>
+        <v>20.13028193574656</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>8.695381443904353</v>
+        <v>15.88205883756833</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.49765606944488</v>
+        <v>18.20512061493702</v>
       </c>
       <c r="C16">
-        <v>28.71763036664286</v>
+        <v>15.23196557500471</v>
       </c>
       <c r="D16">
-        <v>9.262216339697027</v>
+        <v>6.445845026493198</v>
       </c>
       <c r="E16">
-        <v>38.9950060196624</v>
+        <v>20.14412477105941</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>58.22287593543206</v>
+        <v>38.01883974010272</v>
       </c>
       <c r="H16">
-        <v>14.49729809850676</v>
+        <v>14.80531456614461</v>
       </c>
       <c r="I16">
-        <v>19.03138687989806</v>
+        <v>20.08865381721393</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>8.94377354841715</v>
+        <v>15.93329486801004</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.75651642912055</v>
+        <v>17.90064202503795</v>
       </c>
       <c r="C17">
-        <v>28.04694248135491</v>
+        <v>14.91614443265502</v>
       </c>
       <c r="D17">
-        <v>9.0448670218946</v>
+        <v>6.38792986313771</v>
       </c>
       <c r="E17">
-        <v>37.99852369589466</v>
+        <v>19.72263150415201</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>56.78734993726257</v>
+        <v>37.61789701879588</v>
       </c>
       <c r="H17">
-        <v>14.17613411057136</v>
+        <v>14.77616918664281</v>
       </c>
       <c r="I17">
-        <v>18.70205551264564</v>
+        <v>20.06507757668678</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.094933862415303</v>
+        <v>15.96521819491699</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.325753930076</v>
+        <v>17.72343282010558</v>
       </c>
       <c r="C18">
-        <v>27.65768609909415</v>
+        <v>14.73145184836543</v>
       </c>
       <c r="D18">
-        <v>8.918655511457992</v>
+        <v>6.354568351588591</v>
       </c>
       <c r="E18">
-        <v>37.42287880258016</v>
+        <v>19.4762703394299</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>55.95939768922371</v>
+        <v>37.38700821281438</v>
       </c>
       <c r="H18">
-        <v>14.02459019850435</v>
+        <v>14.75985935950125</v>
       </c>
       <c r="I18">
-        <v>18.51532807400709</v>
+        <v>20.05223764044489</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.181507838346068</v>
+        <v>15.98376106635576</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.17911984056025</v>
+        <v>17.66307934778457</v>
       </c>
       <c r="C19">
-        <v>27.52527259911818</v>
+        <v>14.66839511816029</v>
       </c>
       <c r="D19">
-        <v>8.875711792538837</v>
+        <v>6.343265351464196</v>
       </c>
       <c r="E19">
-        <v>37.22750188371864</v>
+        <v>19.39218065942177</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>55.67863721993335</v>
+        <v>37.30879512965004</v>
       </c>
       <c r="H19">
-        <v>13.97346283212971</v>
+        <v>14.75441528913094</v>
       </c>
       <c r="I19">
-        <v>18.45255747196073</v>
+        <v>20.0480139574866</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.210763862498355</v>
+        <v>15.99007059154718</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.83587163495676</v>
+        <v>17.93327061019536</v>
       </c>
       <c r="C20">
-        <v>28.1186957114218</v>
+        <v>14.95007864241637</v>
       </c>
       <c r="D20">
-        <v>9.068127021078118</v>
+        <v>6.394100529793449</v>
       </c>
       <c r="E20">
-        <v>38.1048482219225</v>
+        <v>19.76790658561762</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.9403900824247</v>
+        <v>37.66060898580791</v>
       </c>
       <c r="H20">
-        <v>14.2042697771858</v>
+        <v>14.77922484441289</v>
       </c>
       <c r="I20">
-        <v>18.73683181154789</v>
+        <v>20.06751272969804</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.078882520229325</v>
+        <v>15.96180114256252</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.99023897757687</v>
+        <v>18.81593865165496</v>
       </c>
       <c r="C21">
-        <v>30.07218530296067</v>
+        <v>15.86022466111552</v>
       </c>
       <c r="D21">
-        <v>9.700692979806135</v>
+        <v>6.564208099545667</v>
       </c>
       <c r="E21">
-        <v>41.02643798457387</v>
+        <v>20.9834314146336</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>61.1557731052673</v>
+        <v>38.83865980446527</v>
       </c>
       <c r="H21">
-        <v>15.21630586374025</v>
+        <v>14.86798673245299</v>
       </c>
       <c r="I21">
-        <v>19.90430827634257</v>
+        <v>20.14163586343305</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.630805113232141</v>
+        <v>15.86898211709625</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.3624528593466</v>
+        <v>19.37349723040085</v>
       </c>
       <c r="C22">
-        <v>31.32233586702248</v>
+        <v>16.42815299098328</v>
       </c>
       <c r="D22">
-        <v>10.10468546048752</v>
+        <v>6.674663627812241</v>
       </c>
       <c r="E22">
-        <v>42.92538746515608</v>
+        <v>21.74311279948103</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>63.90118267804829</v>
+        <v>39.60408498315896</v>
       </c>
       <c r="H22">
-        <v>15.89034989700579</v>
+        <v>14.92998478343873</v>
       </c>
       <c r="I22">
-        <v>20.81900789187107</v>
+        <v>20.19649659972555</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.332875814258774</v>
+        <v>15.8099195738547</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.63313078751094</v>
+        <v>19.07771918499286</v>
       </c>
       <c r="C23">
-        <v>30.65729159401894</v>
+        <v>16.12749243159752</v>
       </c>
       <c r="D23">
-        <v>9.889863061796651</v>
+        <v>6.615790007043737</v>
       </c>
       <c r="E23">
-        <v>41.91219527335966</v>
+        <v>21.34082236245071</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>62.4361815768081</v>
+        <v>39.19606916107776</v>
       </c>
       <c r="H23">
-        <v>15.53055538120605</v>
+        <v>14.89653332819168</v>
       </c>
       <c r="I23">
-        <v>20.33017895957322</v>
+        <v>20.1666295564735</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.492448756714904</v>
+        <v>15.84129670864666</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.80000973939266</v>
+        <v>17.91852594681535</v>
       </c>
       <c r="C24">
-        <v>28.08626755125564</v>
+        <v>14.93474671492008</v>
       </c>
       <c r="D24">
-        <v>9.057615095852906</v>
+        <v>6.391310971751499</v>
       </c>
       <c r="E24">
-        <v>38.05678760170293</v>
+        <v>19.74745030493806</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.87120899193984</v>
+        <v>37.64130007071385</v>
       </c>
       <c r="H24">
-        <v>14.19154644438219</v>
+        <v>14.77784199103057</v>
       </c>
       <c r="I24">
-        <v>18.72110134828349</v>
+        <v>20.06640957201555</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.08614034165568</v>
+        <v>15.96334540080818</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.57122198221393</v>
+        <v>16.58926006646703</v>
       </c>
       <c r="C25">
-        <v>25.17768602139802</v>
+        <v>13.53182415070685</v>
       </c>
       <c r="D25">
-        <v>8.113607791271594</v>
+        <v>6.147434359897931</v>
       </c>
       <c r="E25">
-        <v>33.7986554542892</v>
+        <v>17.8783551255268</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.7785780312157</v>
+        <v>35.95501888430339</v>
       </c>
       <c r="H25">
-        <v>13.10430454332817</v>
+        <v>14.66718272781677</v>
       </c>
       <c r="I25">
-        <v>17.40484438022519</v>
+        <v>19.98583199422967</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.713079837240047</v>
+        <v>16.10194013523804</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.5481441735457</v>
+        <v>26.02753401556229</v>
       </c>
       <c r="C2">
-        <v>12.3976867857438</v>
+        <v>22.90035020904712</v>
       </c>
       <c r="D2">
-        <v>5.96792099260609</v>
+        <v>7.373276628618408</v>
       </c>
       <c r="E2">
-        <v>16.53272111060208</v>
+        <v>30.53016446541064</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.71726866766956</v>
+        <v>46.24078534186402</v>
       </c>
       <c r="H2">
-        <v>14.60081989217757</v>
+        <v>12.3338270009231</v>
       </c>
       <c r="I2">
-        <v>19.95002442975634</v>
+        <v>16.51263485278798</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.21006386266351</v>
+        <v>10.17068183980455</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.80732950842882</v>
+        <v>24.1926477325934</v>
       </c>
       <c r="C3">
-        <v>11.59619543570442</v>
+        <v>21.2644842231515</v>
       </c>
       <c r="D3">
-        <v>5.847133426156652</v>
+        <v>6.84105947516456</v>
       </c>
       <c r="E3">
-        <v>15.58751913712275</v>
+        <v>28.21346327477819</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.88729454128996</v>
+        <v>43.14304977047283</v>
       </c>
       <c r="H3">
-        <v>14.56532119140542</v>
+        <v>11.8290864081137</v>
       </c>
       <c r="I3">
-        <v>19.94029781321222</v>
+        <v>15.95213571913443</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.28718261907238</v>
+        <v>10.48131091548142</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.33664346255196</v>
+        <v>23.00920881119556</v>
       </c>
       <c r="C4">
-        <v>11.09675394752501</v>
+        <v>20.21223987416053</v>
       </c>
       <c r="D4">
-        <v>5.773691212322553</v>
+        <v>6.498591130729563</v>
       </c>
       <c r="E4">
-        <v>14.98279392996644</v>
+        <v>26.73582984766506</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.38433052538839</v>
+        <v>41.20783570605011</v>
       </c>
       <c r="H4">
-        <v>14.54820250088277</v>
+        <v>11.52766656354943</v>
       </c>
       <c r="I4">
-        <v>19.94143858370069</v>
+        <v>15.62875250866473</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.33644568882588</v>
+        <v>10.67312269767987</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.14113299146339</v>
+        <v>22.5123869623717</v>
       </c>
       <c r="C5">
-        <v>10.88702080934155</v>
+        <v>19.77112685946728</v>
       </c>
       <c r="D5">
-        <v>5.743989483833317</v>
+        <v>6.355001296137784</v>
       </c>
       <c r="E5">
-        <v>14.73050559302048</v>
+        <v>26.11914891335776</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>33.1813899863129</v>
+        <v>40.41105516302144</v>
       </c>
       <c r="H5">
-        <v>14.54240228988833</v>
+        <v>11.40698479480718</v>
       </c>
       <c r="I5">
-        <v>19.94368203263307</v>
+        <v>15.5020549454512</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.35700381192694</v>
+        <v>10.75166975645393</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.10845392606804</v>
+        <v>22.42900301421502</v>
       </c>
       <c r="C6">
-        <v>10.85182376616609</v>
+        <v>19.69712857429869</v>
       </c>
       <c r="D6">
-        <v>5.739072539681684</v>
+        <v>6.3309124169479</v>
       </c>
       <c r="E6">
-        <v>14.688268433947</v>
+        <v>26.01585372717709</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>33.14782424475341</v>
+        <v>40.2782672523994</v>
       </c>
       <c r="H6">
-        <v>14.54151014352986</v>
+        <v>11.38707621987533</v>
       </c>
       <c r="I6">
-        <v>19.94416165169323</v>
+        <v>15.48131991718761</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.36044671245668</v>
+        <v>10.76473851432386</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.33402133382075</v>
+        <v>23.00256780224342</v>
       </c>
       <c r="C7">
-        <v>11.09395037415437</v>
+        <v>20.20634109852297</v>
       </c>
       <c r="D7">
-        <v>5.773289667308506</v>
+        <v>6.496671060669984</v>
       </c>
       <c r="E7">
-        <v>14.97941480395135</v>
+        <v>26.7275727411933</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.38158494880805</v>
+        <v>41.19712268713814</v>
       </c>
       <c r="H7">
-        <v>14.54811951829107</v>
+        <v>11.52603027365879</v>
       </c>
       <c r="I7">
-        <v>19.94146165297894</v>
+        <v>15.62702341904851</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.33672098421568</v>
+        <v>10.67418032645691</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.29614892130588</v>
+        <v>25.40648312707129</v>
       </c>
       <c r="C8">
-        <v>12.1172569150298</v>
+        <v>22.3460437567766</v>
       </c>
       <c r="D8">
-        <v>5.92615054732452</v>
+        <v>7.19296887416664</v>
       </c>
       <c r="E8">
-        <v>16.21201878222172</v>
+        <v>29.74239562042074</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.42992415949547</v>
+        <v>45.17960728459888</v>
       </c>
       <c r="H8">
-        <v>14.58760925026978</v>
+        <v>12.15803138306882</v>
       </c>
       <c r="I8">
-        <v>19.94518885964003</v>
+        <v>16.31498042822638</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.23625898540869</v>
+        <v>10.27763132602387</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.04713291467398</v>
+        <v>29.68361947590111</v>
       </c>
       <c r="C9">
-        <v>14.02004347292009</v>
+        <v>26.17737855225844</v>
       </c>
       <c r="D9">
-        <v>6.22968424711997</v>
+        <v>8.43829974675506</v>
       </c>
       <c r="E9">
-        <v>18.52819870552906</v>
+        <v>35.25092152331301</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>36.52327189201864</v>
+        <v>52.84685807342711</v>
       </c>
       <c r="H9">
-        <v>14.7021199687355</v>
+        <v>13.46559761538451</v>
       </c>
       <c r="I9">
-        <v>20.00930739698332</v>
+        <v>17.83567098238563</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.05431713006008</v>
+        <v>9.502966373210835</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.2395788168513</v>
+        <v>32.58163112563464</v>
       </c>
       <c r="C10">
-        <v>15.267591537137</v>
+        <v>28.79370110239503</v>
       </c>
       <c r="D10">
-        <v>6.452445787074532</v>
+        <v>9.286858968921377</v>
       </c>
       <c r="E10">
-        <v>20.19168851745649</v>
+        <v>39.10840936429715</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>38.06454537529351</v>
+        <v>58.38640275271472</v>
       </c>
       <c r="H10">
-        <v>14.80870158253534</v>
+        <v>14.53735539109084</v>
       </c>
       <c r="I10">
-        <v>20.0914416857313</v>
+        <v>19.0693398359938</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.92967672438214</v>
+        <v>8.926469489623813</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.75985759220933</v>
+        <v>33.8527947318636</v>
       </c>
       <c r="C11">
-        <v>15.80281928184702</v>
+        <v>29.9472282793609</v>
       </c>
       <c r="D11">
-        <v>6.553223165469839</v>
+        <v>9.660274039923625</v>
       </c>
       <c r="E11">
-        <v>20.90669558127356</v>
+        <v>40.83793730399326</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>38.76255524771378</v>
+        <v>60.8833698425501</v>
       </c>
       <c r="H11">
-        <v>14.86200178662173</v>
+        <v>15.14947671556926</v>
       </c>
       <c r="I11">
-        <v>20.1364586957641</v>
+        <v>19.81387487494316</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.87490315991306</v>
+        <v>8.660105535053502</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.95356902615478</v>
+        <v>34.32795654877786</v>
       </c>
       <c r="C12">
-        <v>16.00088056273671</v>
+        <v>30.37941848391168</v>
       </c>
       <c r="D12">
-        <v>6.591264846552171</v>
+        <v>9.800043084963384</v>
       </c>
       <c r="E12">
-        <v>21.17149113522515</v>
+        <v>41.49089450375715</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>39.02612607960653</v>
+        <v>61.8271013428004</v>
       </c>
       <c r="H12">
-        <v>14.88287021517906</v>
+        <v>15.38104408786978</v>
       </c>
       <c r="I12">
-        <v>20.15460676451123</v>
+        <v>20.12743349351905</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.85443629091401</v>
+        <v>8.558393538017462</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.91199854902262</v>
+        <v>34.22588733516949</v>
       </c>
       <c r="C13">
-        <v>15.95842950195859</v>
+        <v>30.28653273312541</v>
       </c>
       <c r="D13">
-        <v>6.583077868100959</v>
+        <v>9.770010910850422</v>
       </c>
       <c r="E13">
-        <v>21.11472724421126</v>
+        <v>41.3503261999217</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>38.96939934170216</v>
+        <v>61.62390456235246</v>
       </c>
       <c r="H13">
-        <v>14.87834550579973</v>
+        <v>15.33117537533023</v>
       </c>
       <c r="I13">
-        <v>20.15064929320517</v>
+        <v>20.05986020123873</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.85883201645597</v>
+        <v>8.580341220677145</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.7758612296765</v>
+        <v>33.89200714522185</v>
       </c>
       <c r="C14">
-        <v>15.81920630722452</v>
+        <v>29.98287340394718</v>
       </c>
       <c r="D14">
-        <v>6.556355515839001</v>
+        <v>9.671804576657497</v>
       </c>
       <c r="E14">
-        <v>20.9285997454808</v>
+        <v>40.89168535785549</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>38.78425607163746</v>
+        <v>60.96103761786036</v>
       </c>
       <c r="H14">
-        <v>14.86370496926238</v>
+        <v>15.1685301089674</v>
       </c>
       <c r="I14">
-        <v>20.13792968434311</v>
+        <v>19.8396531486509</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.87321384605146</v>
+        <v>8.651756206180982</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.69203937039664</v>
+        <v>33.68670742750258</v>
       </c>
       <c r="C15">
-        <v>15.73332744619367</v>
+        <v>29.79629210561583</v>
       </c>
       <c r="D15">
-        <v>6.539970449661986</v>
+        <v>9.611443160824285</v>
       </c>
       <c r="E15">
-        <v>20.81381594944768</v>
+        <v>40.61055225136744</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.67074415288572</v>
+        <v>60.55482707715404</v>
       </c>
       <c r="H15">
-        <v>14.85482614756234</v>
+        <v>15.06888754023365</v>
       </c>
       <c r="I15">
-        <v>20.13028193574656</v>
+        <v>19.7048847076587</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.88205883756833</v>
+        <v>8.695381443904319</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.20512061493702</v>
+        <v>32.49765606944494</v>
       </c>
       <c r="C16">
-        <v>15.23196557500471</v>
+        <v>28.71763036664277</v>
       </c>
       <c r="D16">
-        <v>6.445845026493198</v>
+        <v>9.262216339696996</v>
       </c>
       <c r="E16">
-        <v>20.14412477105941</v>
+        <v>38.99500601966235</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>38.01883974010272</v>
+        <v>58.22287593543216</v>
       </c>
       <c r="H16">
-        <v>14.80531456614461</v>
+        <v>14.4972980985068</v>
       </c>
       <c r="I16">
-        <v>20.08865381721393</v>
+        <v>19.03138687989808</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.93329486801004</v>
+        <v>8.943773548417115</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.90064202503795</v>
+        <v>31.75651642912046</v>
       </c>
       <c r="C17">
-        <v>14.91614443265502</v>
+        <v>28.04694248135488</v>
       </c>
       <c r="D17">
-        <v>6.38792986313771</v>
+        <v>9.044867021894627</v>
       </c>
       <c r="E17">
-        <v>19.72263150415201</v>
+        <v>37.99852369589471</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>37.61789701879588</v>
+        <v>56.78734993726246</v>
       </c>
       <c r="H17">
-        <v>14.77616918664281</v>
+        <v>14.17613411057137</v>
       </c>
       <c r="I17">
-        <v>20.06507757668678</v>
+        <v>18.70205551264569</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.96521819491699</v>
+        <v>9.094933862415369</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.72343282010558</v>
+        <v>31.32575393007602</v>
       </c>
       <c r="C18">
-        <v>14.73145184836543</v>
+        <v>27.65768609909416</v>
       </c>
       <c r="D18">
-        <v>6.354568351588591</v>
+        <v>8.918655511457921</v>
       </c>
       <c r="E18">
-        <v>19.4762703394299</v>
+        <v>37.42287880258011</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>37.38700821281438</v>
+        <v>55.9593976892239</v>
       </c>
       <c r="H18">
-        <v>14.75985935950125</v>
+        <v>14.02459019850438</v>
       </c>
       <c r="I18">
-        <v>20.05223764044489</v>
+        <v>18.51532807400715</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.98376106635576</v>
+        <v>9.181507838346104</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.66307934778457</v>
+        <v>31.17911984056031</v>
       </c>
       <c r="C19">
-        <v>14.66839511816029</v>
+        <v>27.52527259911833</v>
       </c>
       <c r="D19">
-        <v>6.343265351464196</v>
+        <v>8.87571179253888</v>
       </c>
       <c r="E19">
-        <v>19.39218065942177</v>
+        <v>37.22750188371867</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>37.30879512965004</v>
+        <v>55.67863721993358</v>
       </c>
       <c r="H19">
-        <v>14.75441528913094</v>
+        <v>13.97346283212974</v>
       </c>
       <c r="I19">
-        <v>20.0480139574866</v>
+        <v>18.45255747196079</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.99007059154718</v>
+        <v>9.210763862498357</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.93327061019536</v>
+        <v>31.83587163495674</v>
       </c>
       <c r="C20">
-        <v>14.95007864241637</v>
+        <v>28.11869571142179</v>
       </c>
       <c r="D20">
-        <v>6.394100529793449</v>
+        <v>9.068127021078086</v>
       </c>
       <c r="E20">
-        <v>19.76790658561762</v>
+        <v>38.10484822192245</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>37.66060898580791</v>
+        <v>56.94039008242455</v>
       </c>
       <c r="H20">
-        <v>14.77922484441289</v>
+        <v>14.20426977718579</v>
       </c>
       <c r="I20">
-        <v>20.06751272969804</v>
+        <v>18.73683181154786</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.96180114256252</v>
+        <v>9.078882520229325</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.81593865165496</v>
+        <v>33.99023897757691</v>
       </c>
       <c r="C21">
-        <v>15.86022466111552</v>
+        <v>30.07218530296062</v>
       </c>
       <c r="D21">
-        <v>6.564208099545667</v>
+        <v>9.700692979806139</v>
       </c>
       <c r="E21">
-        <v>20.9834314146336</v>
+        <v>41.02643798457385</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>38.83865980446527</v>
+        <v>61.15577310526741</v>
       </c>
       <c r="H21">
-        <v>14.86798673245299</v>
+        <v>15.21630586374025</v>
       </c>
       <c r="I21">
-        <v>20.14163586343305</v>
+        <v>19.9043082763426</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.86898211709625</v>
+        <v>8.630805113232141</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.37349723040085</v>
+        <v>35.3624528593466</v>
       </c>
       <c r="C22">
-        <v>16.42815299098328</v>
+        <v>31.32233586702241</v>
       </c>
       <c r="D22">
-        <v>6.674663627812241</v>
+        <v>10.10468546048761</v>
       </c>
       <c r="E22">
-        <v>21.74311279948103</v>
+        <v>42.92538746515606</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>39.60408498315896</v>
+        <v>63.90118267804824</v>
       </c>
       <c r="H22">
-        <v>14.92998478343873</v>
+        <v>15.8903498970058</v>
       </c>
       <c r="I22">
-        <v>20.19649659972555</v>
+        <v>20.81900789187108</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.8099195738547</v>
+        <v>8.332875814258808</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.07771918499286</v>
+        <v>34.63313078751102</v>
       </c>
       <c r="C23">
-        <v>16.12749243159752</v>
+        <v>30.65729159401894</v>
       </c>
       <c r="D23">
-        <v>6.615790007043737</v>
+        <v>9.889863061796648</v>
       </c>
       <c r="E23">
-        <v>21.34082236245071</v>
+        <v>41.9121952733597</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>39.19606916107776</v>
+        <v>62.43618157680824</v>
       </c>
       <c r="H23">
-        <v>14.89653332819168</v>
+        <v>15.5305553812061</v>
       </c>
       <c r="I23">
-        <v>20.1666295564735</v>
+        <v>20.33017895957332</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.84129670864666</v>
+        <v>8.492448756714834</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.91852594681535</v>
+        <v>31.80000973939261</v>
       </c>
       <c r="C24">
-        <v>14.93474671492008</v>
+        <v>28.08626755125549</v>
       </c>
       <c r="D24">
-        <v>6.391310971751499</v>
+        <v>9.057615095852837</v>
       </c>
       <c r="E24">
-        <v>19.74745030493806</v>
+        <v>38.0567876017029</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>37.64130007071385</v>
+        <v>56.87120899193974</v>
       </c>
       <c r="H24">
-        <v>14.77784199103057</v>
+        <v>14.19154644438217</v>
       </c>
       <c r="I24">
-        <v>20.06640957201555</v>
+        <v>18.72110134828352</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.96334540080818</v>
+        <v>9.086140341655714</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.58926006646703</v>
+        <v>28.57122198221382</v>
       </c>
       <c r="C25">
-        <v>13.53182415070685</v>
+        <v>25.17768602139799</v>
       </c>
       <c r="D25">
-        <v>6.147434359897931</v>
+        <v>8.113607791271741</v>
       </c>
       <c r="E25">
-        <v>17.8783551255268</v>
+        <v>33.79865545428916</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>35.95501888430339</v>
+        <v>50.77857803121562</v>
       </c>
       <c r="H25">
-        <v>14.66718272781677</v>
+        <v>13.10430454332822</v>
       </c>
       <c r="I25">
-        <v>19.98583199422967</v>
+        <v>17.40484438022527</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.10194013523804</v>
+        <v>9.713079837240146</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.02753401556229</v>
+        <v>24.71885788549114</v>
       </c>
       <c r="C2">
-        <v>22.90035020904712</v>
+        <v>16.67303035257475</v>
       </c>
       <c r="D2">
-        <v>7.373276628618408</v>
+        <v>7.128573631724968</v>
       </c>
       <c r="E2">
-        <v>30.53016446541064</v>
+        <v>7.556496002492845</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.24078534186402</v>
+        <v>45.52883087143707</v>
       </c>
       <c r="H2">
-        <v>12.3338270009231</v>
+        <v>1.583763448400816</v>
       </c>
       <c r="I2">
-        <v>16.51263485278798</v>
+        <v>2.55884596957723</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.45679459371691</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.59616985016648</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.17068183980455</v>
+        <v>8.371472906191713</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.4810012461046</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.1926477325934</v>
+        <v>23.1205413536692</v>
       </c>
       <c r="C3">
-        <v>21.2644842231515</v>
+        <v>15.56734786416905</v>
       </c>
       <c r="D3">
-        <v>6.84105947516456</v>
+        <v>6.631379360678556</v>
       </c>
       <c r="E3">
-        <v>28.21346327477819</v>
+        <v>7.308289447318178</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.14304977047283</v>
+        <v>43.3262154576131</v>
       </c>
       <c r="H3">
-        <v>11.8290864081137</v>
+        <v>1.823103057783262</v>
       </c>
       <c r="I3">
-        <v>15.95213571913443</v>
+        <v>2.631053722467491</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>13.10237378781896</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.12744028148166</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.48131091548142</v>
+        <v>8.003289007529268</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.64618097861499</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.00920881119556</v>
+        <v>22.08221634071349</v>
       </c>
       <c r="C4">
-        <v>20.21223987416053</v>
+        <v>14.85436266594139</v>
       </c>
       <c r="D4">
-        <v>6.498591130729563</v>
+        <v>6.309408961840811</v>
       </c>
       <c r="E4">
-        <v>26.73582984766506</v>
+        <v>7.151459036377098</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.20783570605011</v>
+        <v>41.93227946261954</v>
       </c>
       <c r="H4">
-        <v>11.52766656354943</v>
+        <v>2.004485601737628</v>
       </c>
       <c r="I4">
-        <v>15.62875250866473</v>
+        <v>2.789515918610713</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.88422198784253</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.83835946372308</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.67312269767987</v>
+        <v>7.768898643034299</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.74828138024685</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.5123869623717</v>
+        <v>21.63699683815181</v>
       </c>
       <c r="C5">
-        <v>19.77112685946728</v>
+        <v>14.56054347157118</v>
       </c>
       <c r="D5">
-        <v>6.355001296137784</v>
+        <v>6.189887796540137</v>
       </c>
       <c r="E5">
-        <v>26.11914891335776</v>
+        <v>7.085401307046268</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>40.41105516302144</v>
+        <v>41.32872119820737</v>
       </c>
       <c r="H5">
-        <v>11.40698479480718</v>
+        <v>2.080349640387694</v>
       </c>
       <c r="I5">
-        <v>15.5020549454512</v>
+        <v>2.85871282589544</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.79008204119164</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.70960437035157</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10.75166975645393</v>
+        <v>7.671517721556931</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.78908637294085</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.42900301421502</v>
+        <v>21.55265230622624</v>
       </c>
       <c r="C6">
-        <v>19.69712857429869</v>
+        <v>14.51778524649223</v>
       </c>
       <c r="D6">
-        <v>6.3309124169479</v>
+        <v>6.170617695794864</v>
       </c>
       <c r="E6">
-        <v>26.01585372717709</v>
+        <v>7.07314205218618</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40.2782672523994</v>
+        <v>41.19650822345701</v>
       </c>
       <c r="H6">
-        <v>11.38707621987533</v>
+        <v>2.093656011807302</v>
       </c>
       <c r="I6">
-        <v>15.48131991718761</v>
+        <v>2.874372981912323</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.7681062476998</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.67511358495331</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>10.76473851432386</v>
+        <v>7.65542245876722</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.7946665023894</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.00256780224342</v>
+        <v>22.0507674381301</v>
       </c>
       <c r="C7">
-        <v>20.20634109852297</v>
+        <v>14.86789203077182</v>
       </c>
       <c r="D7">
-        <v>6.496671060669984</v>
+        <v>6.307480119387051</v>
       </c>
       <c r="E7">
-        <v>26.7275727411933</v>
+        <v>7.147283296026067</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.19712268713814</v>
+        <v>41.83978232084895</v>
       </c>
       <c r="H7">
-        <v>11.52603027365879</v>
+        <v>2.00717878098121</v>
       </c>
       <c r="I7">
-        <v>15.62702341904851</v>
+        <v>2.801355844915832</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.86577511292627</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.80110055892425</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.67418032645691</v>
+        <v>7.768122447642758</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.74559434743385</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.40648312707129</v>
+        <v>24.14833282281396</v>
       </c>
       <c r="C8">
-        <v>22.3460437567766</v>
+        <v>16.32008777845141</v>
       </c>
       <c r="D8">
-        <v>7.19296887416664</v>
+        <v>6.960412389845066</v>
       </c>
       <c r="E8">
-        <v>29.74239562042074</v>
+        <v>7.467645040298641</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.17960728459888</v>
+        <v>44.67294671849116</v>
       </c>
       <c r="H8">
-        <v>12.15803138306882</v>
+        <v>1.636503344682804</v>
       </c>
       <c r="I8">
-        <v>16.31498042822638</v>
+        <v>2.481403887859847</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.31271626790886</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.38909132844039</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.27763132602387</v>
+        <v>8.246973310326643</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.5338261378721</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.68361947590111</v>
+        <v>27.85026050832311</v>
       </c>
       <c r="C9">
-        <v>26.17737855225844</v>
+        <v>18.87276576028372</v>
       </c>
       <c r="D9">
-        <v>8.43829974675506</v>
+        <v>8.110454353367118</v>
       </c>
       <c r="E9">
-        <v>35.25092152331301</v>
+        <v>8.067992897060412</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.84685807342711</v>
+        <v>50.01730821783188</v>
       </c>
       <c r="H9">
-        <v>13.46559761538451</v>
+        <v>2.156992275356039</v>
       </c>
       <c r="I9">
-        <v>17.83567098238563</v>
+        <v>3.056575594965842</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.21123769859938</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.59015926208036</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.502966373210835</v>
+        <v>9.116580086295704</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.12815278873976</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.58163112563464</v>
+        <v>30.24066763532799</v>
       </c>
       <c r="C10">
-        <v>28.79370110239503</v>
+        <v>20.62125242179463</v>
       </c>
       <c r="D10">
-        <v>9.286858968921377</v>
+        <v>8.87740976995039</v>
       </c>
       <c r="E10">
-        <v>39.10840936429715</v>
+        <v>8.435387435655047</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>58.38640275271472</v>
+        <v>53.32966051129395</v>
       </c>
       <c r="H10">
-        <v>14.53735539109084</v>
+        <v>2.611035971600228</v>
       </c>
       <c r="I10">
-        <v>19.0693398359938</v>
+        <v>3.456845183483888</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>14.77936762960486</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.29651645738867</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>8.926469489623813</v>
+        <v>9.570351611847801</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.81935494524106</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.8527947318636</v>
+        <v>30.45718325668569</v>
       </c>
       <c r="C11">
-        <v>29.9472282793609</v>
+        <v>21.61160215978111</v>
       </c>
       <c r="D11">
-        <v>9.660274039923625</v>
+        <v>9.201682894210306</v>
       </c>
       <c r="E11">
-        <v>40.83793730399326</v>
+        <v>8.340775007203199</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>60.8833698425501</v>
+        <v>51.72098197786072</v>
       </c>
       <c r="H11">
-        <v>15.14947671556926</v>
+        <v>3.357955622042528</v>
       </c>
       <c r="I11">
-        <v>19.81387487494316</v>
+        <v>3.560924716057267</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.35311278724536</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.28666323177506</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8.660105535053502</v>
+        <v>8.578027744746072</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.61487172766694</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.32795654877786</v>
+        <v>30.17190129116682</v>
       </c>
       <c r="C12">
-        <v>30.37941848391168</v>
+        <v>22.07226723662238</v>
       </c>
       <c r="D12">
-        <v>9.800043084963384</v>
+        <v>9.318879804959995</v>
       </c>
       <c r="E12">
-        <v>41.49089450375715</v>
+        <v>8.481015371447732</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>61.8271013428004</v>
+        <v>49.74627396946404</v>
       </c>
       <c r="H12">
-        <v>15.38104408786978</v>
+        <v>4.48686160000781</v>
       </c>
       <c r="I12">
-        <v>20.12743349351905</v>
+        <v>3.568171127480663</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.88781417505082</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.32337759303285</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.558393538017462</v>
+        <v>7.674204524026351</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.5480915549303</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.22588733516949</v>
+        <v>29.44434478758495</v>
       </c>
       <c r="C13">
-        <v>30.28653273312541</v>
+        <v>22.18757821272762</v>
       </c>
       <c r="D13">
-        <v>9.770010910850422</v>
+        <v>9.287018033210288</v>
       </c>
       <c r="E13">
-        <v>41.3503261999217</v>
+        <v>8.786914682582843</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>61.62390456235246</v>
+        <v>47.20033900555782</v>
       </c>
       <c r="H13">
-        <v>15.33117537533023</v>
+        <v>5.719170611951272</v>
       </c>
       <c r="I13">
-        <v>20.05986020123873</v>
+        <v>3.503235779060231</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.33147490971008</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.2752270629397</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.580341220677145</v>
+        <v>6.782414336743127</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.57577840683807</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.89200714522185</v>
+        <v>28.71872534276515</v>
       </c>
       <c r="C14">
-        <v>29.98287340394718</v>
+        <v>22.1187557653703</v>
       </c>
       <c r="D14">
-        <v>9.671804576657497</v>
+        <v>9.1970484994114</v>
       </c>
       <c r="E14">
-        <v>40.89168535785549</v>
+        <v>9.099282638597998</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>60.96103761786036</v>
+        <v>45.1068006152552</v>
       </c>
       <c r="H14">
-        <v>15.1685301089674</v>
+        <v>6.620096500787799</v>
       </c>
       <c r="I14">
-        <v>19.8396531486509</v>
+        <v>3.426280391915161</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.89315636449711</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.49226740126724</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8.651756206180982</v>
+        <v>6.179159777279052</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>11.64058211106077</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.68670742750258</v>
+        <v>28.43675337697099</v>
       </c>
       <c r="C15">
-        <v>29.79629210561583</v>
+        <v>22.03334691206043</v>
       </c>
       <c r="D15">
-        <v>9.611443160824285</v>
+        <v>9.142940146674114</v>
       </c>
       <c r="E15">
-        <v>40.61055225136744</v>
+        <v>9.171835145549991</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>60.55482707715404</v>
+        <v>44.44431375149669</v>
       </c>
       <c r="H15">
-        <v>15.06888754023365</v>
+        <v>6.823850811563251</v>
       </c>
       <c r="I15">
-        <v>19.7048847076587</v>
+        <v>3.392369150314099</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.76193237629766</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.27333660294898</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>8.695381443904319</v>
+        <v>6.031516245879143</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.67160890531187</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.49765606944494</v>
+        <v>27.52096454721138</v>
       </c>
       <c r="C16">
-        <v>28.71763036664277</v>
+        <v>21.31557058476703</v>
       </c>
       <c r="D16">
-        <v>9.262216339696996</v>
+        <v>8.833255725995985</v>
       </c>
       <c r="E16">
-        <v>38.99500601966235</v>
+        <v>8.951869426221327</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>58.22287593543216</v>
+        <v>43.34118307302521</v>
       </c>
       <c r="H16">
-        <v>14.4972980985068</v>
+        <v>6.53576634261714</v>
       </c>
       <c r="I16">
-        <v>19.03138687989808</v>
+        <v>3.236431662943477</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.60113400976605</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.1359793110442</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>8.943773548417115</v>
+        <v>5.980009282827691</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.78716637656618</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.75651642912046</v>
+        <v>27.20923936213674</v>
       </c>
       <c r="C17">
-        <v>28.04694248135488</v>
+        <v>20.79122556440057</v>
       </c>
       <c r="D17">
-        <v>9.044867021894627</v>
+        <v>8.640843936227929</v>
       </c>
       <c r="E17">
-        <v>37.99852369589471</v>
+        <v>8.587245573550478</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>56.78734993726246</v>
+        <v>43.65232565263339</v>
       </c>
       <c r="H17">
-        <v>14.17613411057137</v>
+        <v>5.783009892876125</v>
       </c>
       <c r="I17">
-        <v>18.70205551264569</v>
+        <v>3.157526890381992</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.71653838887973</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.45224402226903</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.094933862415369</v>
+        <v>6.258024741846533</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11.84104949002009</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.32575393007602</v>
+        <v>27.41408692727705</v>
       </c>
       <c r="C18">
-        <v>27.65768609909416</v>
+        <v>20.37031538043459</v>
       </c>
       <c r="D18">
-        <v>8.918655511457921</v>
+        <v>8.531347636441334</v>
       </c>
       <c r="E18">
-        <v>37.42287880258011</v>
+        <v>8.176394295484132</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>55.9593976892239</v>
+        <v>45.27511711868799</v>
       </c>
       <c r="H18">
-        <v>14.02459019850438</v>
+        <v>4.585989541229766</v>
       </c>
       <c r="I18">
-        <v>18.51532807400715</v>
+        <v>3.136083077061215</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.09273546876467</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.22086618311947</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.181507838346104</v>
+        <v>6.899139860636606</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>11.86492328623081</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.17911984056031</v>
+        <v>27.97770398445833</v>
       </c>
       <c r="C19">
-        <v>27.52527259911833</v>
+        <v>20.09700586388018</v>
       </c>
       <c r="D19">
-        <v>8.87571179253888</v>
+        <v>8.49793911050503</v>
       </c>
       <c r="E19">
-        <v>37.22750188371867</v>
+        <v>7.968411286529717</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>55.67863721993358</v>
+        <v>47.66677118804681</v>
       </c>
       <c r="H19">
-        <v>13.97346283212974</v>
+        <v>3.285593451311361</v>
       </c>
       <c r="I19">
-        <v>18.45255747196079</v>
+        <v>3.172637097616138</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.61801402565109</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.2400263687266</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.210763862498357</v>
+        <v>7.830781354489613</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>11.88772559422921</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.83587163495674</v>
+        <v>29.5571827375439</v>
       </c>
       <c r="C20">
-        <v>28.11869571142179</v>
+        <v>20.21539533445549</v>
       </c>
       <c r="D20">
-        <v>9.068127021078086</v>
+        <v>8.680583130214764</v>
       </c>
       <c r="E20">
-        <v>38.10484822192245</v>
+        <v>8.328230364412045</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.94039008242455</v>
+        <v>52.24330092128837</v>
       </c>
       <c r="H20">
-        <v>14.20426977718579</v>
+        <v>2.486866962066318</v>
       </c>
       <c r="I20">
-        <v>18.73683181154786</v>
+        <v>3.357997973077851</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>14.57961989440299</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.00500911873149</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.078882520229325</v>
+        <v>9.448412344167046</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.89213761430885</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.99023897757691</v>
+        <v>31.48549057436945</v>
       </c>
       <c r="C21">
-        <v>30.07218530296062</v>
+        <v>21.45927015912788</v>
       </c>
       <c r="D21">
-        <v>9.700692979806139</v>
+        <v>9.247111735424792</v>
       </c>
       <c r="E21">
-        <v>41.02643798457385</v>
+        <v>8.692525210360047</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>61.15577310526741</v>
+        <v>55.30020245412307</v>
       </c>
       <c r="H21">
-        <v>15.21630586374025</v>
+        <v>2.854338846912272</v>
       </c>
       <c r="I21">
-        <v>19.9043082763426</v>
+        <v>3.673585757138367</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.14212655543218</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.7966903409965</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.630805113232141</v>
+        <v>10.00140985118684</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.67321790212686</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.3624528593466</v>
+        <v>32.668805703119</v>
       </c>
       <c r="C22">
-        <v>31.32233586702241</v>
+        <v>22.24251185877226</v>
       </c>
       <c r="D22">
-        <v>10.10468546048761</v>
+        <v>9.603957030078174</v>
       </c>
       <c r="E22">
-        <v>42.92538746515606</v>
+        <v>8.903685461409925</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>63.90118267804824</v>
+        <v>57.15632112756048</v>
       </c>
       <c r="H22">
-        <v>15.8903498970058</v>
+        <v>3.08452840905587</v>
       </c>
       <c r="I22">
-        <v>20.81900789187108</v>
+        <v>3.87122601911717</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.48705713751272</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.27468878041249</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.332875814258808</v>
+        <v>10.28103440001206</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.52762415456223</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.63313078751102</v>
+        <v>32.06404317711802</v>
       </c>
       <c r="C23">
-        <v>30.65729159401894</v>
+        <v>21.81229720527752</v>
       </c>
       <c r="D23">
-        <v>9.889863061796648</v>
+        <v>9.414877296412087</v>
       </c>
       <c r="E23">
-        <v>41.9121952733597</v>
+        <v>8.794425931447451</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>62.43618157680824</v>
+        <v>56.2467432693893</v>
       </c>
       <c r="H23">
-        <v>15.5305553812061</v>
+        <v>2.963622328181805</v>
       </c>
       <c r="I23">
-        <v>20.33017895957332</v>
+        <v>3.764002023149513</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.32052888155673</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.05646185656028</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.492448756714834</v>
+        <v>10.13203937393201</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.60826416159894</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.80000973939261</v>
+        <v>29.63551264547735</v>
       </c>
       <c r="C24">
-        <v>28.08626755125549</v>
+        <v>20.15087624435053</v>
       </c>
       <c r="D24">
-        <v>9.057615095852837</v>
+        <v>8.672115534162057</v>
       </c>
       <c r="E24">
-        <v>38.0567876017029</v>
+        <v>8.371167009503244</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.87120899193974</v>
+        <v>52.59415388896429</v>
       </c>
       <c r="H24">
-        <v>14.19154644438217</v>
+        <v>2.496554843081029</v>
       </c>
       <c r="I24">
-        <v>18.72110134828352</v>
+        <v>3.356249935661983</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>14.65888989824963</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.16830945696275</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.086140341655714</v>
+        <v>9.551599895829293</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.90850822489356</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.57122198221382</v>
+        <v>26.85841137931898</v>
       </c>
       <c r="C25">
-        <v>25.17768602139799</v>
+        <v>18.23641638675749</v>
       </c>
       <c r="D25">
-        <v>8.113607791271741</v>
+        <v>7.812796952485347</v>
       </c>
       <c r="E25">
-        <v>33.79865545428916</v>
+        <v>7.903521155328118</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.77857803121562</v>
+        <v>48.47872143188828</v>
       </c>
       <c r="H25">
-        <v>13.10430454332822</v>
+        <v>1.977097729516237</v>
       </c>
       <c r="I25">
-        <v>17.40484438022527</v>
+        <v>2.906547501253922</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13.9406305854556</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.20700693863246</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.713079837240146</v>
+        <v>8.889853037223416</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.2326103006688</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.71885788549114</v>
+        <v>23.70020523035804</v>
       </c>
       <c r="C2">
-        <v>16.67303035257475</v>
+        <v>17.22313808604253</v>
       </c>
       <c r="D2">
-        <v>7.128573631724968</v>
+        <v>7.12794833122475</v>
       </c>
       <c r="E2">
-        <v>7.556496002492845</v>
+        <v>7.38581032057163</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>45.52883087143707</v>
+        <v>41.5963744744594</v>
       </c>
       <c r="H2">
-        <v>1.583763448400816</v>
+        <v>1.605450324242341</v>
       </c>
       <c r="I2">
-        <v>2.55884596957723</v>
+        <v>2.594135445712425</v>
       </c>
       <c r="J2">
-        <v>13.45679459371691</v>
+        <v>13.1160982447165</v>
       </c>
       <c r="K2">
-        <v>20.59616985016648</v>
+        <v>18.96048735006797</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.80997963905543</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.48361436343922</v>
       </c>
       <c r="N2">
-        <v>8.371472906191713</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.4810012461046</v>
+        <v>8.454743983236535</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.30526550253671</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.1205413536692</v>
+        <v>22.20087312950886</v>
       </c>
       <c r="C3">
-        <v>15.56734786416905</v>
+        <v>16.05017304079931</v>
       </c>
       <c r="D3">
-        <v>6.631379360678556</v>
+        <v>6.633216023830943</v>
       </c>
       <c r="E3">
-        <v>7.308289447318178</v>
+        <v>7.173869515238102</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.3262154576131</v>
+        <v>39.74789746563077</v>
       </c>
       <c r="H3">
-        <v>1.823103057783262</v>
+        <v>1.770252621977426</v>
       </c>
       <c r="I3">
-        <v>2.631053722467491</v>
+        <v>2.564409461971431</v>
       </c>
       <c r="J3">
-        <v>13.10237378781896</v>
+        <v>12.80157341658454</v>
       </c>
       <c r="K3">
-        <v>20.12744028148166</v>
+        <v>18.6479074101944</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.7295818088827</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.07004755088067</v>
       </c>
       <c r="N3">
-        <v>8.003289007529268</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.64618097861499</v>
+        <v>8.095541573090772</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.45877154074601</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.08221634071349</v>
+        <v>21.22495423321675</v>
       </c>
       <c r="C4">
-        <v>14.85436266594139</v>
+        <v>15.29236227498184</v>
       </c>
       <c r="D4">
-        <v>6.309408961840811</v>
+        <v>6.31258051270999</v>
       </c>
       <c r="E4">
-        <v>7.151459036377098</v>
+        <v>7.0398713198703</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.93227946261954</v>
+        <v>38.58239976536674</v>
       </c>
       <c r="H4">
-        <v>2.004485601737628</v>
+        <v>1.932472430235809</v>
       </c>
       <c r="I4">
-        <v>2.789515918610713</v>
+        <v>2.700688993041912</v>
       </c>
       <c r="J4">
-        <v>12.88422198784253</v>
+        <v>12.60474232908262</v>
       </c>
       <c r="K4">
-        <v>19.83835946372308</v>
+        <v>18.4549107172893</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.67404599453942</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.83231550688693</v>
       </c>
       <c r="N4">
-        <v>7.768898643034299</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.74828138024685</v>
+        <v>7.867128562589667</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.55425168115316</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.63699683815181</v>
+        <v>20.80588716324846</v>
       </c>
       <c r="C5">
-        <v>14.56054347157118</v>
+        <v>14.97933967474464</v>
       </c>
       <c r="D5">
-        <v>6.189887796540137</v>
+        <v>6.192485172010484</v>
       </c>
       <c r="E5">
-        <v>7.085401307046268</v>
+        <v>6.983408240950347</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>41.32872119820737</v>
+        <v>38.07579095433348</v>
       </c>
       <c r="H5">
-        <v>2.080349640387694</v>
+        <v>2.000382701408064</v>
       </c>
       <c r="I5">
-        <v>2.85871282589544</v>
+        <v>2.761247775436895</v>
       </c>
       <c r="J5">
-        <v>12.79008204119164</v>
+        <v>12.51878922683425</v>
       </c>
       <c r="K5">
-        <v>19.70960437035157</v>
+        <v>18.36619217026263</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.64184233156025</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.732947179035</v>
       </c>
       <c r="N5">
-        <v>7.671517721556931</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.78908637294085</v>
+        <v>7.772308177506022</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.59298287177543</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.55265230622624</v>
+        <v>20.72631538587422</v>
       </c>
       <c r="C6">
-        <v>14.51778524649223</v>
+        <v>14.93326760738324</v>
       </c>
       <c r="D6">
-        <v>6.170617695794864</v>
+        <v>6.17326750140539</v>
       </c>
       <c r="E6">
-        <v>7.07314205218618</v>
+        <v>6.972926459090098</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>41.19650822345701</v>
+        <v>37.96132140659763</v>
       </c>
       <c r="H6">
-        <v>2.093656011807302</v>
+        <v>2.0123046057627</v>
       </c>
       <c r="I6">
-        <v>2.874372981912323</v>
+        <v>2.776094749445424</v>
       </c>
       <c r="J6">
-        <v>12.7681062476998</v>
+        <v>12.4985030196147</v>
       </c>
       <c r="K6">
-        <v>19.67511358495331</v>
+        <v>18.33943611839289</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.62662917834155</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.70824837533224</v>
       </c>
       <c r="N6">
-        <v>7.65542245876722</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.7946665023894</v>
+        <v>7.756644926964613</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.59883158419864</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.0507674381301</v>
+        <v>21.18335238199846</v>
       </c>
       <c r="C7">
-        <v>14.86789203077182</v>
+        <v>15.28752177284411</v>
       </c>
       <c r="D7">
-        <v>6.307480119387051</v>
+        <v>6.310592779768831</v>
       </c>
       <c r="E7">
-        <v>7.147283296026067</v>
+        <v>7.036679337972624</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.83978232084895</v>
+        <v>38.57084907695809</v>
       </c>
       <c r="H7">
-        <v>2.00717878098121</v>
+        <v>1.935767836760814</v>
       </c>
       <c r="I7">
-        <v>2.801355844915832</v>
+        <v>2.714959629446182</v>
       </c>
       <c r="J7">
-        <v>12.86577511292627</v>
+        <v>12.52384990395531</v>
       </c>
       <c r="K7">
-        <v>19.80110055892425</v>
+        <v>18.40578606742442</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.63504833858176</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.79658528015114</v>
       </c>
       <c r="N7">
-        <v>7.768122447642758</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.74559434743385</v>
+        <v>7.864755020397514</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.55255534633129</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.14833282281396</v>
+        <v>23.12924147451242</v>
       </c>
       <c r="C8">
-        <v>16.32008777845141</v>
+        <v>16.79264152778264</v>
       </c>
       <c r="D8">
-        <v>6.960412389845066</v>
+        <v>6.960422211419155</v>
       </c>
       <c r="E8">
-        <v>7.467645040298641</v>
+        <v>7.311281157753538</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>44.67294671849116</v>
+        <v>41.10373411698742</v>
       </c>
       <c r="H8">
-        <v>1.636503344682804</v>
+        <v>1.606293710152838</v>
       </c>
       <c r="I8">
-        <v>2.481403887859847</v>
+        <v>2.524829675902801</v>
       </c>
       <c r="J8">
-        <v>13.31271626790886</v>
+        <v>12.78316124301016</v>
       </c>
       <c r="K8">
-        <v>20.38909132844039</v>
+        <v>18.76134421953303</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.71247271188291</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.26910259217374</v>
       </c>
       <c r="N8">
-        <v>8.246973310326643</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.5338261378721</v>
+        <v>8.328146017140043</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.35469520606772</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.85026050832311</v>
+        <v>26.58786455716499</v>
       </c>
       <c r="C9">
-        <v>18.87276576028372</v>
+        <v>19.48690913255474</v>
       </c>
       <c r="D9">
-        <v>8.110454353367118</v>
+        <v>8.10303205212942</v>
       </c>
       <c r="E9">
-        <v>8.067992897060412</v>
+        <v>7.823760666697792</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>50.01730821783188</v>
+        <v>45.66298663705011</v>
       </c>
       <c r="H9">
-        <v>2.156992275356039</v>
+        <v>2.112797765545577</v>
       </c>
       <c r="I9">
-        <v>3.056575594965842</v>
+        <v>3.018487435878055</v>
       </c>
       <c r="J9">
-        <v>14.21123769859938</v>
+        <v>13.52037378964333</v>
       </c>
       <c r="K9">
-        <v>21.59015926208036</v>
+        <v>19.56203579394901</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.90448879324403</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.39279050465196</v>
       </c>
       <c r="N9">
-        <v>9.116580086295704</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.12815278873976</v>
+        <v>9.176677581330688</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.98012973574258</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.24066763532799</v>
+        <v>28.78026123412456</v>
       </c>
       <c r="C10">
-        <v>20.62125242179463</v>
+        <v>21.23615784777541</v>
       </c>
       <c r="D10">
-        <v>8.87740976995039</v>
+        <v>8.862905669087462</v>
       </c>
       <c r="E10">
-        <v>8.435387435655047</v>
+        <v>8.140179703273905</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>53.32966051129395</v>
+        <v>48.86059504091561</v>
       </c>
       <c r="H10">
-        <v>2.611035971600228</v>
+        <v>2.511488485654838</v>
       </c>
       <c r="I10">
-        <v>3.456845183483888</v>
+        <v>3.357198616977081</v>
       </c>
       <c r="J10">
-        <v>14.77936762960486</v>
+        <v>13.64124094166848</v>
       </c>
       <c r="K10">
-        <v>22.29651645738867</v>
+        <v>19.92583237252488</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.86019079280969</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.09340964654302</v>
       </c>
       <c r="N10">
-        <v>9.570351611847801</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.81935494524106</v>
+        <v>9.608262003001471</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.70912843369296</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.45718325668569</v>
+        <v>28.92276953585576</v>
       </c>
       <c r="C11">
-        <v>21.61160215978111</v>
+        <v>22.03142433329318</v>
       </c>
       <c r="D11">
-        <v>9.201682894210306</v>
+        <v>9.184316154777743</v>
       </c>
       <c r="E11">
-        <v>8.340775007203199</v>
+        <v>8.094059122648876</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51.72098197786072</v>
+        <v>48.19873163980702</v>
       </c>
       <c r="H11">
-        <v>3.357955622042528</v>
+        <v>3.266155128978344</v>
       </c>
       <c r="I11">
-        <v>3.560924716057267</v>
+        <v>3.44306803091402</v>
       </c>
       <c r="J11">
-        <v>14.35311278724536</v>
+        <v>12.57395159923591</v>
       </c>
       <c r="K11">
-        <v>21.28666323177506</v>
+        <v>18.84992794203104</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.95387133225218</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.42344847960773</v>
       </c>
       <c r="N11">
-        <v>8.578027744746072</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.61487172766694</v>
+        <v>8.588933885862787</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.6261179979131</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.17190129116682</v>
+        <v>28.65102788675712</v>
       </c>
       <c r="C12">
-        <v>22.07226723662238</v>
+        <v>22.37374545571036</v>
       </c>
       <c r="D12">
-        <v>9.318879804959995</v>
+        <v>9.300953595362646</v>
       </c>
       <c r="E12">
-        <v>8.481015371447732</v>
+        <v>8.274602176179831</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>49.74627396946404</v>
+        <v>46.82700844656411</v>
       </c>
       <c r="H12">
-        <v>4.48686160000781</v>
+        <v>4.418203645902175</v>
       </c>
       <c r="I12">
-        <v>3.568171127480663</v>
+        <v>3.447694353751528</v>
       </c>
       <c r="J12">
-        <v>13.88781417505082</v>
+        <v>11.87362360538457</v>
       </c>
       <c r="K12">
-        <v>20.32337759303285</v>
+        <v>17.95497653597524</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.27633930580463</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.77007557669967</v>
       </c>
       <c r="N12">
-        <v>7.674204524026351</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.5480915549303</v>
+        <v>7.670844256225561</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.64926106899894</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.44434478758495</v>
+        <v>28.02961554606933</v>
       </c>
       <c r="C13">
-        <v>22.18757821272762</v>
+        <v>22.45338729154268</v>
       </c>
       <c r="D13">
-        <v>9.287018033210288</v>
+        <v>9.270575486791213</v>
       </c>
       <c r="E13">
-        <v>8.786914682582843</v>
+        <v>8.629627987105714</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>47.20033900555782</v>
+        <v>44.51359394249382</v>
       </c>
       <c r="H13">
-        <v>5.719170611951272</v>
+        <v>5.672236637289635</v>
       </c>
       <c r="I13">
-        <v>3.503235779060231</v>
+        <v>3.395319175054465</v>
       </c>
       <c r="J13">
-        <v>13.33147490971008</v>
+        <v>11.50500440694554</v>
       </c>
       <c r="K13">
-        <v>19.2752270629397</v>
+        <v>17.12122501487771</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.70764848126805</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.07245049234117</v>
       </c>
       <c r="N13">
-        <v>6.782414336743127</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.57577840683807</v>
+        <v>6.776592478531343</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.7372851946198</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.71872534276515</v>
+        <v>27.42089494187923</v>
       </c>
       <c r="C14">
-        <v>22.1187557653703</v>
+        <v>22.3951533119425</v>
       </c>
       <c r="D14">
-        <v>9.1970484994114</v>
+        <v>9.182518212783872</v>
       </c>
       <c r="E14">
-        <v>9.099282638597998</v>
+        <v>8.983691465278998</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.1068006152552</v>
+        <v>42.42476351035889</v>
       </c>
       <c r="H14">
-        <v>6.620096500787799</v>
+        <v>6.585996204212904</v>
       </c>
       <c r="I14">
-        <v>3.426280391915161</v>
+        <v>3.334190277524293</v>
       </c>
       <c r="J14">
-        <v>12.89315636449711</v>
+        <v>11.37777748069459</v>
       </c>
       <c r="K14">
-        <v>18.49226740126724</v>
+        <v>16.5529753213478</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.34667753245007</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.55491926280158</v>
       </c>
       <c r="N14">
-        <v>6.179159777279052</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.64058211106077</v>
+        <v>6.176529439649238</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.82612775892376</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.43675337697099</v>
+        <v>27.1862927792681</v>
       </c>
       <c r="C15">
-        <v>22.03334691206043</v>
+        <v>22.32765748314899</v>
       </c>
       <c r="D15">
-        <v>9.142940146674114</v>
+        <v>9.129289204624405</v>
       </c>
       <c r="E15">
-        <v>9.171835145549991</v>
+        <v>9.071123007703511</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.44431375149669</v>
+        <v>41.69710314620653</v>
       </c>
       <c r="H15">
-        <v>6.823850811563251</v>
+        <v>6.793476136853081</v>
       </c>
       <c r="I15">
-        <v>3.392369150314099</v>
+        <v>3.307907548151538</v>
       </c>
       <c r="J15">
-        <v>12.76193237629766</v>
+        <v>11.39874872733757</v>
       </c>
       <c r="K15">
-        <v>18.27333660294898</v>
+        <v>16.4142331023419</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.26920269432257</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.41069224219115</v>
       </c>
       <c r="N15">
-        <v>6.031516245879143</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.67160890531187</v>
+        <v>6.031970792286012</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.8566582419667</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.52096454721138</v>
+        <v>26.42873529056447</v>
       </c>
       <c r="C16">
-        <v>21.31557058476703</v>
+        <v>21.73680900650268</v>
       </c>
       <c r="D16">
-        <v>8.833255725995985</v>
+        <v>8.82330869106868</v>
       </c>
       <c r="E16">
-        <v>8.951869426221327</v>
+        <v>8.891991215834388</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.34118307302521</v>
+        <v>40.04899343476416</v>
       </c>
       <c r="H16">
-        <v>6.53576634261714</v>
+        <v>6.515440562111102</v>
       </c>
       <c r="I16">
-        <v>3.236431662943477</v>
+        <v>3.182568700001712</v>
       </c>
       <c r="J16">
-        <v>12.60113400976605</v>
+        <v>11.86975646557284</v>
       </c>
       <c r="K16">
-        <v>18.1359793110442</v>
+        <v>16.50194162762211</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.43070443910165</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.31893939655911</v>
       </c>
       <c r="N16">
-        <v>5.980009282827691</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.78716637656618</v>
+        <v>6.001557479641098</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.91917835611567</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.20923936213674</v>
+        <v>26.16116041612243</v>
       </c>
       <c r="C17">
-        <v>20.79122556440057</v>
+        <v>21.28372683042566</v>
       </c>
       <c r="D17">
-        <v>8.640843936227929</v>
+        <v>8.632544744395727</v>
       </c>
       <c r="E17">
-        <v>8.587245573550478</v>
+        <v>8.527778700777331</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>43.65232565263339</v>
+        <v>40.03418428267741</v>
       </c>
       <c r="H17">
-        <v>5.783009892876125</v>
+        <v>5.765487484483423</v>
       </c>
       <c r="I17">
-        <v>3.157526890381992</v>
+        <v>3.117880111954884</v>
       </c>
       <c r="J17">
-        <v>12.71653838887973</v>
+        <v>12.22858020506911</v>
       </c>
       <c r="K17">
-        <v>18.45224402226903</v>
+        <v>16.85758588273764</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.74329703815972</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.51157959871003</v>
       </c>
       <c r="N17">
-        <v>6.258024741846533</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.84104949002009</v>
+        <v>6.292827958174485</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.92866945812946</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.41408692727705</v>
+        <v>26.33380516529313</v>
       </c>
       <c r="C18">
-        <v>20.37031538043459</v>
+        <v>20.92290397817888</v>
       </c>
       <c r="D18">
-        <v>8.531347636441334</v>
+        <v>8.523378245645521</v>
       </c>
       <c r="E18">
-        <v>8.176394295484132</v>
+        <v>8.08120299592621</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>45.27511711868799</v>
+        <v>41.34360410408678</v>
       </c>
       <c r="H18">
-        <v>4.585989541229766</v>
+        <v>4.564931062706277</v>
       </c>
       <c r="I18">
-        <v>3.136083077061215</v>
+        <v>3.097797815816909</v>
       </c>
       <c r="J18">
-        <v>13.09273546876467</v>
+        <v>12.65810044561512</v>
       </c>
       <c r="K18">
-        <v>19.22086618311947</v>
+        <v>17.5388750052825</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.26699396994706</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.00637113656601</v>
       </c>
       <c r="N18">
-        <v>6.899139860636606</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.86492328623081</v>
+        <v>6.943520731770884</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.90105533723841</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.97770398445833</v>
+        <v>26.81694368181318</v>
       </c>
       <c r="C19">
-        <v>20.09700586388018</v>
+        <v>20.70711089096127</v>
       </c>
       <c r="D19">
-        <v>8.49793911050503</v>
+        <v>8.489310367987821</v>
       </c>
       <c r="E19">
-        <v>7.968411286529717</v>
+        <v>7.807848749256216</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>47.66677118804681</v>
+        <v>43.40579792423918</v>
       </c>
       <c r="H19">
-        <v>3.285593451311361</v>
+        <v>3.251019796703797</v>
       </c>
       <c r="I19">
-        <v>3.172637097616138</v>
+        <v>3.128089402749298</v>
       </c>
       <c r="J19">
-        <v>13.61801402565109</v>
+        <v>13.13278519369174</v>
       </c>
       <c r="K19">
-        <v>20.2400263687266</v>
+        <v>18.39414770468741</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.897629209465</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.67218289883989</v>
       </c>
       <c r="N19">
-        <v>7.830781354489613</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.88772559422921</v>
+        <v>7.881344297733301</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.86521889344114</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.5571827375439</v>
+        <v>28.18961124544882</v>
       </c>
       <c r="C20">
-        <v>20.21539533445549</v>
+        <v>20.87888436534611</v>
       </c>
       <c r="D20">
-        <v>8.680583130214764</v>
+        <v>8.668438118638688</v>
       </c>
       <c r="E20">
-        <v>8.328230364412045</v>
+        <v>8.047066221634671</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>52.24330092128837</v>
+        <v>47.59078606923158</v>
       </c>
       <c r="H20">
-        <v>2.486866962066318</v>
+        <v>2.404855323583512</v>
       </c>
       <c r="I20">
-        <v>3.357997973077851</v>
+        <v>3.28118317766435</v>
       </c>
       <c r="J20">
-        <v>14.57961989440299</v>
+        <v>13.76639464164979</v>
       </c>
       <c r="K20">
-        <v>22.00500911873149</v>
+        <v>19.78300167467445</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.83837816917739</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.86964666550348</v>
       </c>
       <c r="N20">
-        <v>9.448412344167046</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.89213761430885</v>
+        <v>9.496892149996409</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.77905506838112</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.48549057436945</v>
+        <v>29.76958366794383</v>
       </c>
       <c r="C21">
-        <v>21.45927015912788</v>
+        <v>21.88256449226194</v>
       </c>
       <c r="D21">
-        <v>9.247111735424792</v>
+        <v>9.227031032473496</v>
       </c>
       <c r="E21">
-        <v>8.692525210360047</v>
+        <v>8.36763556797834</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>55.30020245412307</v>
+        <v>51.65140130405955</v>
       </c>
       <c r="H21">
-        <v>2.854338846912272</v>
+        <v>2.714497648097597</v>
       </c>
       <c r="I21">
-        <v>3.673585757138367</v>
+        <v>3.533437215568763</v>
       </c>
       <c r="J21">
-        <v>15.14212655543218</v>
+        <v>12.92154956538645</v>
       </c>
       <c r="K21">
-        <v>22.7966903409965</v>
+        <v>20.01446451831324</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.76820576602947</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.37880870872331</v>
       </c>
       <c r="N21">
-        <v>10.00140985118684</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.67321790212686</v>
+        <v>10.00938720227665</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.57404090185876</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.668805703119</v>
+        <v>30.72744937684168</v>
       </c>
       <c r="C22">
-        <v>22.24251185877226</v>
+        <v>22.49617732994179</v>
       </c>
       <c r="D22">
-        <v>9.603957030078174</v>
+        <v>9.578282431635252</v>
       </c>
       <c r="E22">
-        <v>8.903685461409925</v>
+        <v>8.557806343854551</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>57.15632112756048</v>
+        <v>54.24242178638038</v>
       </c>
       <c r="H22">
-        <v>3.08452840905587</v>
+        <v>2.9074895718673</v>
       </c>
       <c r="I22">
-        <v>3.87122601911717</v>
+        <v>3.688864667152384</v>
       </c>
       <c r="J22">
-        <v>15.48705713751272</v>
+        <v>12.29690684747681</v>
       </c>
       <c r="K22">
-        <v>23.27468878041249</v>
+        <v>20.12027734546109</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.68847298073934</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.67968523561942</v>
       </c>
       <c r="N22">
-        <v>10.28103440001206</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.52762415456223</v>
+        <v>10.26141216485601</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.44355053249465</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.06404317711802</v>
+        <v>30.26352077757156</v>
       </c>
       <c r="C23">
-        <v>21.81229720527752</v>
+        <v>22.18990367990737</v>
       </c>
       <c r="D23">
-        <v>9.414877296412087</v>
+        <v>9.392417501124042</v>
       </c>
       <c r="E23">
-        <v>8.794425931447451</v>
+        <v>8.457403443769625</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.2467432693893</v>
+        <v>52.77939769542142</v>
       </c>
       <c r="H23">
-        <v>2.963622328181805</v>
+        <v>2.807798318700395</v>
       </c>
       <c r="I23">
-        <v>3.764002023149513</v>
+        <v>3.604198050597093</v>
       </c>
       <c r="J23">
-        <v>15.32052888155673</v>
+        <v>12.78639868342317</v>
       </c>
       <c r="K23">
-        <v>23.05646185656028</v>
+        <v>20.13328406959764</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.78029084115898</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.57432044147646</v>
       </c>
       <c r="N23">
-        <v>10.13203937393201</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.60826416159894</v>
+        <v>10.13041376783518</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.51225136135063</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.63551264547735</v>
+        <v>28.26012947628436</v>
       </c>
       <c r="C24">
-        <v>20.15087624435053</v>
+        <v>20.82176405693104</v>
       </c>
       <c r="D24">
-        <v>8.672115534162057</v>
+        <v>8.659901018521913</v>
       </c>
       <c r="E24">
-        <v>8.371167009503244</v>
+        <v>8.082483112787768</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>52.59415388896429</v>
+        <v>47.89566257027341</v>
       </c>
       <c r="H24">
-        <v>2.496554843081029</v>
+        <v>2.413654965197868</v>
       </c>
       <c r="I24">
-        <v>3.356249935661983</v>
+        <v>3.276450600672966</v>
       </c>
       <c r="J24">
-        <v>14.65888989824963</v>
+        <v>13.8470572146587</v>
       </c>
       <c r="K24">
-        <v>22.16830945696275</v>
+        <v>19.92809798445239</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.94763762266985</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.97942306806384</v>
       </c>
       <c r="N24">
-        <v>9.551599895829293</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.90850822489356</v>
+        <v>9.600811822872366</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.78298188687664</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.85841137931898</v>
+        <v>25.67607197750957</v>
       </c>
       <c r="C25">
-        <v>18.23641638675749</v>
+        <v>18.83634058051075</v>
       </c>
       <c r="D25">
-        <v>7.812796952485347</v>
+        <v>7.807742067904917</v>
       </c>
       <c r="E25">
-        <v>7.903521155328118</v>
+        <v>7.682928514687544</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>48.47872143188828</v>
+        <v>44.23781681593189</v>
       </c>
       <c r="H25">
-        <v>1.977097729516237</v>
+        <v>1.953996630861201</v>
       </c>
       <c r="I25">
-        <v>2.906547501253922</v>
+        <v>2.894055676646269</v>
       </c>
       <c r="J25">
-        <v>13.9406305854556</v>
+        <v>13.38223876424884</v>
       </c>
       <c r="K25">
-        <v>21.20700693863246</v>
+        <v>19.31203670971969</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.83197676931279</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.05192366768035</v>
       </c>
       <c r="N25">
-        <v>8.889853037223416</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.2326103006688</v>
+        <v>8.957425182222986</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.07973689927415</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
